--- a/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_offline 7 BEST.xlsx
+++ b/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_offline 7 BEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC4E848-C722-49BD-8D3C-86BDBB652650}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34778CB8-42E9-43E8-BAFE-EE42F5642274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,6 +72,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7969,8 +7970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V43" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AS54" sqref="AS54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="BR50" sqref="BR50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_offline 7 BEST.xlsx
+++ b/RNN/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.001_8_manual_offline 7 BEST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34778CB8-42E9-43E8-BAFE-EE42F5642274}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C2102-D780-4DDF-B9E1-B67C6CA72743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7970,7 +7970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="51" zoomScaleNormal="51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="BR50" sqref="BR50"/>
     </sheetView>
   </sheetViews>
